--- a/locators-updated.xlsx
+++ b/locators-updated.xlsx
@@ -1503,7 +1503,7 @@
         <v>css</v>
       </c>
       <c r="C2" t="str">
-        <v>input[placeholder='Mobile Number']</v>
+        <v>input[placeholder="Mobile Number"]</v>
       </c>
       <c r="D2" t="str">
         <v>{"name":"WrongMobile Field"}</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>input[placeholder='Mobile Number']</v>
+        <v>input[placeholder="Mobile Number"]</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-10-20T05:01:28.767Z</v>
+        <v>2025-10-22T04:02:10.596Z</v>
       </c>
     </row>
     <row r="3">
@@ -1538,7 +1538,7 @@
         <v>input[placeholder='Enter Password']</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-10-20T05:01:28.767Z</v>
+        <v>2025-10-22T04:02:10.597Z</v>
       </c>
     </row>
     <row r="4">

--- a/locators-updated.xlsx
+++ b/locators-updated.xlsx
@@ -1503,7 +1503,7 @@
         <v>css</v>
       </c>
       <c r="C2" t="str">
-        <v>input[placeholder="Mobile Number"]</v>
+        <v>getByRole('textbox', { name: 'Mobile Number' }).nth(0)</v>
       </c>
       <c r="D2" t="str">
         <v>{"name":"WrongMobile Field"}</v>
@@ -1512,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>input[placeholder="Mobile Number"]</v>
+        <v>getByRole('textbox', { name: 'Mobile Number' }).nth(0)</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-10-22T04:02:10.596Z</v>
+        <v>2025-10-27T04:50:53.865Z</v>
       </c>
     </row>
     <row r="3">
@@ -1526,7 +1526,7 @@
         <v>css</v>
       </c>
       <c r="C3" t="str">
-        <v>input[placeholder='Enter Password']</v>
+        <v>getByRole('textbox', { name: 'Enter Password' }).nth(0)</v>
       </c>
       <c r="D3" t="str">
         <v>{"name":"WrongPasswordField"}</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>input[placeholder='Enter Password']</v>
+        <v>getByRole('textbox', { name: 'Enter Password' }).nth(0)</v>
       </c>
       <c r="G3" t="str">
-        <v>2025-10-22T04:02:10.597Z</v>
+        <v>2025-10-27T04:50:53.865Z</v>
       </c>
     </row>
     <row r="4">
@@ -1583,13 +1583,19 @@
         <v>css</v>
       </c>
       <c r="C6" t="str">
-        <v>#login-button-wrong</v>
+        <v>getByRole('button', { name: 'Login' })</v>
       </c>
       <c r="D6" t="str">
         <v>{}</v>
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>getByRole('button', { name: 'Login' })</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2025-10-27T04:50:53.866Z</v>
       </c>
     </row>
     <row r="7">
